--- a/悖论模拟干员名单20240421用户版.xlsx
+++ b/悖论模拟干员名单20240421用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77FFFC-901C-4ED3-8CCA-C3B8E5C39674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78536847-FF6D-40B6-A5DB-ACD28EEE4771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="3840" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="3675" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="530">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,10 +1019,6 @@
     <t>空构</t>
   </si>
   <si>
-    <t>*为好评率不高于80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1068,9 +1064,6 @@
     <t>maa://24702, maa://25390</t>
   </si>
   <si>
-    <t>maa://35568, maa://24632, maa://33777, *maa://32337, maa://31167, maa://21178, maa://22746, maa://22499, maa://21197, maa://21210, maa://21155</t>
-  </si>
-  <si>
     <t>maa://21245, *maa://22744</t>
   </si>
   <si>
@@ -1104,15 +1097,9 @@
     <t>maa://24570</t>
   </si>
   <si>
-    <t>maa://21432, maa://25198</t>
-  </si>
-  <si>
     <t>maa://21261</t>
   </si>
   <si>
-    <t>maa://23842, maa://23848, maa://23861, maa://23862</t>
-  </si>
-  <si>
     <t>maa://24368</t>
   </si>
   <si>
@@ -1125,507 +1112,535 @@
     <t>maa://31694</t>
   </si>
   <si>
-    <t>2024.04.21更新：删除好评率50以下的作业</t>
+    <t>maa://21247, maa://22748</t>
+  </si>
+  <si>
+    <t>maa://24370</t>
+  </si>
+  <si>
+    <t>*maa://24371</t>
+  </si>
+  <si>
+    <t>maa://32651</t>
+  </si>
+  <si>
+    <t>maa://21867</t>
+  </si>
+  <si>
+    <t>maa://32656</t>
+  </si>
+  <si>
+    <t>maa://24304, maa://21478</t>
+  </si>
+  <si>
+    <t>maa://22430</t>
+  </si>
+  <si>
+    <t>maa://24421</t>
+  </si>
+  <si>
+    <t>*maa://21956, maa://22864, maa://22730</t>
+  </si>
+  <si>
+    <t>maa://24372</t>
+  </si>
+  <si>
+    <t>*maa://29063, *maa://25311, maa://32845, maa://32405, maa://29054, maa://20690, *maa://20982</t>
+  </si>
+  <si>
+    <t>maa://24913</t>
+  </si>
+  <si>
+    <t>*maa://25175</t>
+  </si>
+  <si>
+    <t>maa://24375</t>
+  </si>
+  <si>
+    <t>*maa://24374</t>
+  </si>
+  <si>
+    <t>maa://31628, maa://25269, maa://25580, maa://25287, *maa://25612, maa://25597, maa://25275, maa://25281, maa://25302, *maa://25271, maa://25270, *maa://25633, maa://25273, maa://25591, maa://24988</t>
+  </si>
+  <si>
+    <t>maa://24466</t>
+  </si>
+  <si>
+    <t>maa://22525, maa://21284</t>
+  </si>
+  <si>
+    <t>maa://29768, maa://27728</t>
+  </si>
+  <si>
+    <t>maa://21229, maa://30807, *maa://22767</t>
+  </si>
+  <si>
+    <t>maa://35931</t>
+  </si>
+  <si>
+    <t>maa://27410, maa://29661, maa://28038</t>
+  </si>
+  <si>
+    <t>*maa://30769</t>
+  </si>
+  <si>
+    <t>maa://24376</t>
+  </si>
+  <si>
+    <t>maa://32532</t>
+  </si>
+  <si>
+    <t>maa://25176</t>
+  </si>
+  <si>
+    <t>maa://31270, maa://27746</t>
+  </si>
+  <si>
+    <t>*maa://22880, maa://20276, *maa://22749</t>
+  </si>
+  <si>
+    <t>maa://22757</t>
+  </si>
+  <si>
+    <t>maa://24839</t>
+  </si>
+  <si>
+    <t>maa://28624, maa://24957</t>
+  </si>
+  <si>
+    <t>maa://22762</t>
+  </si>
+  <si>
+    <t>maa://21287</t>
+  </si>
+  <si>
+    <t>maa://26245, maa://21288</t>
+  </si>
+  <si>
+    <t>*maa://21334</t>
+  </si>
+  <si>
+    <t>maa://24377</t>
+  </si>
+  <si>
+    <t>*maa://21679</t>
+  </si>
+  <si>
+    <t>maa://31731</t>
+  </si>
+  <si>
+    <t>maa://27127, maa://22751</t>
+  </si>
+  <si>
+    <t>maa://29225, maa://29297, maa://29247, maa://33104, maa://22646, maa://22644, maa://29612</t>
+  </si>
+  <si>
+    <t>maa://28071</t>
+  </si>
+  <si>
+    <t>*maa://30770</t>
+  </si>
+  <si>
+    <t>*maa://28440, maa://28432, maa://31400, *maa://28650</t>
+  </si>
+  <si>
+    <t>maa://30442</t>
+  </si>
+  <si>
+    <t>maa://35926</t>
+  </si>
+  <si>
+    <t>maa://28065</t>
+  </si>
+  <si>
+    <t>maa://21249, maa://26254</t>
+  </si>
+  <si>
+    <t>maa://21919, maa://21281</t>
+  </si>
+  <si>
+    <t>maa://31836, maa://30381</t>
+  </si>
+  <si>
+    <t>maa://22750</t>
+  </si>
+  <si>
+    <t>maa://32931, *maa://21916, maa://23252, *maa://22759</t>
+  </si>
+  <si>
+    <t>*maa://22736</t>
+  </si>
+  <si>
+    <t>maa://28977, *maa://23264</t>
+  </si>
+  <si>
+    <t>maa://22676, *maa://22583, *maa://22500</t>
+  </si>
+  <si>
+    <t>maa://34865, maa://34717, maa://35720, maa://35792, maa://35758, maa://28734</t>
+  </si>
+  <si>
+    <t>maa://28504</t>
+  </si>
+  <si>
+    <t>maa://31270, maa://27746, maa://23890, *maa://24940</t>
+  </si>
+  <si>
+    <t>maa://29920, maa://30162, maa://29927, maa://29655, maa://30178, maa://30164, maa://29926, maa://30190, maa://30176, maa://29925, maa://29922, maa://29924, maa://29923, maa://29921, maa://30191</t>
+  </si>
+  <si>
+    <t>maa://24381</t>
+  </si>
+  <si>
+    <t>maa://30587, *maa://29748</t>
+  </si>
+  <si>
+    <t>maa://24382</t>
+  </si>
+  <si>
+    <t>*maa://30968</t>
+  </si>
+  <si>
+    <t>maa://21442</t>
+  </si>
+  <si>
+    <t>maa://26203</t>
+  </si>
+  <si>
+    <t>*maa://21956, maa://22730</t>
+  </si>
+  <si>
+    <t>maa://21280, *maa://21239</t>
+  </si>
+  <si>
+    <t>*maa://24383</t>
+  </si>
+  <si>
+    <t>maa://24709</t>
+  </si>
+  <si>
+    <t>maa://23278, maa://21386</t>
+  </si>
+  <si>
+    <t>maa://22742, *maa://20791</t>
+  </si>
+  <si>
+    <t>maa://21291</t>
+  </si>
+  <si>
+    <t>maa://22747, maa://22501</t>
+  </si>
+  <si>
+    <t>maa://24709, maa://21484</t>
+  </si>
+  <si>
+    <t>*maa://22471, maa://22521</t>
+  </si>
+  <si>
+    <t>maa://23892</t>
+  </si>
+  <si>
+    <t>*maa://28648, maa://22729</t>
+  </si>
+  <si>
+    <t>maa://24385</t>
+  </si>
+  <si>
+    <t>maa://24386</t>
+  </si>
+  <si>
+    <t>maa://29113</t>
+  </si>
+  <si>
+    <t>maa://21993</t>
+  </si>
+  <si>
+    <t>maa://31212, maa://24387</t>
+  </si>
+  <si>
+    <t>maa://30624</t>
+  </si>
+  <si>
+    <t>*maa://29765, maa://23263</t>
+  </si>
+  <si>
+    <t>maa://28502, maa://21181, maa://21157, maa://21211</t>
+  </si>
+  <si>
+    <t>maa://32940, maa://24388</t>
+  </si>
+  <si>
+    <t>maa://30711, maa://30768</t>
+  </si>
+  <si>
+    <t>maa://24526</t>
+  </si>
+  <si>
+    <t>maa://24842</t>
+  </si>
+  <si>
+    <t>maa://27613</t>
+  </si>
+  <si>
+    <t>maa://30713</t>
+  </si>
+  <si>
+    <t>maa://27484, maa://27396, *maa://29890, maa://27480</t>
+  </si>
+  <si>
+    <t>maa://21290</t>
+  </si>
+  <si>
+    <t>maa://22399, *maa://22758</t>
+  </si>
+  <si>
+    <t>maa://21411</t>
+  </si>
+  <si>
+    <t>maa://26223</t>
+  </si>
+  <si>
+    <t>maa://22301, maa://22726</t>
+  </si>
+  <si>
+    <t>maa://22753, *maa://21485</t>
+  </si>
+  <si>
+    <t>maa://34957, *maa://22768</t>
+  </si>
+  <si>
+    <t>maa://28501, maa://28051</t>
+  </si>
+  <si>
+    <t>maa://31386</t>
+  </si>
+  <si>
+    <t>maa://34946, maa://20110</t>
+  </si>
+  <si>
+    <t>maa://21282</t>
+  </si>
+  <si>
+    <t>*maa://28503</t>
+  </si>
+  <si>
+    <t>*maa://29890</t>
+  </si>
+  <si>
+    <t>maa://24389</t>
+  </si>
+  <si>
+    <t>maa://21246</t>
+  </si>
+  <si>
+    <t>maa://24390</t>
+  </si>
+  <si>
+    <t>maa://22739</t>
+  </si>
+  <si>
+    <t>maa://34732, maa://34778, maa://34834, maa://29619, maa://29653, maa://34753, maa://23983, maa://34790, *maa://23990, maa://24010, maa://24001, maa://23986, maa://23997, *maa://24003</t>
+  </si>
+  <si>
+    <t>maa://24391</t>
+  </si>
+  <si>
+    <t>maa://29912, maa://22516, *maa://20794</t>
+  </si>
+  <si>
+    <t>maa://23669</t>
+  </si>
+  <si>
+    <t>maa://24392</t>
+  </si>
+  <si>
+    <t>maa://22764</t>
+  </si>
+  <si>
+    <t>maa://26228</t>
+  </si>
+  <si>
+    <t>maa://24393</t>
+  </si>
+  <si>
+    <t>*maa://30709</t>
+  </si>
+  <si>
+    <t>maa://23656</t>
+  </si>
+  <si>
+    <t>maa://29652</t>
+  </si>
+  <si>
+    <t>maa://31215, *maa://24516, maa://26001</t>
+  </si>
+  <si>
+    <t>maa://25251</t>
+  </si>
+  <si>
+    <t>*maa://21289</t>
+  </si>
+  <si>
+    <t>*maa://30062</t>
+  </si>
+  <si>
+    <t>*maa://26191</t>
+  </si>
+  <si>
+    <t>*maa://24479, *maa://21990</t>
+  </si>
+  <si>
+    <t>*maa://25021, *maa://22733, maa://22761</t>
+  </si>
+  <si>
+    <t>maa://31203</t>
+  </si>
+  <si>
+    <t>*maa://30062, maa://28932, *maa://20106, *maa://22769</t>
+  </si>
+  <si>
+    <t>*maa://23911, maa://27755</t>
+  </si>
+  <si>
+    <t>*maa://21663</t>
+  </si>
+  <si>
+    <t>maa://22524, maa://22432</t>
+  </si>
+  <si>
+    <t>maa://29658</t>
+  </si>
+  <si>
+    <t>maa://31489</t>
+  </si>
+  <si>
+    <t>maa://24621, maa://20108, maa://22771</t>
+  </si>
+  <si>
+    <t>maa://24023</t>
+  </si>
+  <si>
+    <t>*maa://24080, maa://24690, maa://26956, maa://24815</t>
+  </si>
+  <si>
+    <t>*maa://32650</t>
+  </si>
+  <si>
+    <t>2024.04.21更新：删除好评率20以下的作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maa://21247, maa://22748</t>
-  </si>
-  <si>
-    <t>maa://24370</t>
-  </si>
-  <si>
-    <t>*maa://24371</t>
-  </si>
-  <si>
-    <t>maa://32651</t>
-  </si>
-  <si>
-    <t>maa://21867</t>
-  </si>
-  <si>
-    <t>*maa://21248</t>
-  </si>
-  <si>
-    <t>maa://32656</t>
-  </si>
-  <si>
-    <t>maa://24304, maa://21478</t>
-  </si>
-  <si>
-    <t>maa://22430</t>
-  </si>
-  <si>
-    <t>maa://24421</t>
-  </si>
-  <si>
-    <t>*maa://21956, maa://22864, maa://22730</t>
-  </si>
-  <si>
-    <t>maa://24372</t>
-  </si>
-  <si>
-    <t>maa://25236</t>
-  </si>
-  <si>
-    <t>*maa://29063, *maa://25311, maa://32845, maa://32405, maa://29054, maa://20690, *maa://20982</t>
-  </si>
-  <si>
-    <t>maa://24913</t>
-  </si>
-  <si>
-    <t>maa://34494</t>
-  </si>
-  <si>
-    <t>*maa://25175</t>
-  </si>
-  <si>
-    <t>maa://32721</t>
-  </si>
-  <si>
-    <t>maa://21895, maa://22760</t>
-  </si>
-  <si>
-    <t>maa://24375</t>
-  </si>
-  <si>
-    <t>*maa://24374</t>
-  </si>
-  <si>
-    <t>maa://31628, maa://25269, maa://25580, maa://25287, *maa://25612, maa://25597, maa://25275, maa://25281, maa://25302, *maa://25271, maa://25270, *maa://25633, maa://25273, maa://25591, maa://24988</t>
-  </si>
-  <si>
-    <t>maa://24466</t>
-  </si>
-  <si>
-    <t>maa://22525, maa://21284</t>
-  </si>
-  <si>
-    <t>maa://29768, maa://27728</t>
-  </si>
-  <si>
-    <t>maa://21229, maa://30807, *maa://22767</t>
-  </si>
-  <si>
-    <t>maa://35931</t>
-  </si>
-  <si>
-    <t>maa://27410, maa://29661, maa://28038</t>
-  </si>
-  <si>
-    <t>*maa://30769</t>
-  </si>
-  <si>
-    <t>maa://24376</t>
-  </si>
-  <si>
-    <t>maa://32534</t>
-  </si>
-  <si>
-    <t>maa://32532</t>
-  </si>
-  <si>
-    <t>maa://25176</t>
-  </si>
-  <si>
-    <t>maa://31270, maa://27746</t>
-  </si>
-  <si>
-    <t>maa://34787, *maa://30515, *maa://24633</t>
-  </si>
-  <si>
-    <t>*maa://22880, maa://20276, *maa://22749</t>
-  </si>
-  <si>
-    <t>maa://22757</t>
-  </si>
-  <si>
-    <t>maa://24839</t>
-  </si>
-  <si>
-    <t>maa://28624, maa://24957</t>
-  </si>
-  <si>
-    <t>maa://22762</t>
-  </si>
-  <si>
-    <t>maa://21287</t>
-  </si>
-  <si>
-    <t>maa://26245, maa://21288</t>
-  </si>
-  <si>
-    <t>*maa://21334</t>
-  </si>
-  <si>
-    <t>maa://24377</t>
-  </si>
-  <si>
-    <t>*maa://21679</t>
-  </si>
-  <si>
-    <t>maa://22325, maa://28347, maa://22466, maa://22400, maa://31374, maa://30096, maa://27023, maa://21182, maa://21213</t>
-  </si>
-  <si>
-    <t>maa://31731</t>
-  </si>
-  <si>
-    <t>maa://27127, maa://22751</t>
-  </si>
-  <si>
-    <t>maa://29225, maa://29297, maa://29247, maa://33104, maa://22646, maa://22644, maa://29612</t>
-  </si>
-  <si>
-    <t>maa://28071</t>
-  </si>
-  <si>
-    <t>*maa://30770</t>
-  </si>
-  <si>
-    <t>*maa://28440, maa://28432, maa://31400, *maa://28650</t>
-  </si>
-  <si>
-    <t>maa://30442</t>
-  </si>
-  <si>
-    <t>maa://35926</t>
-  </si>
-  <si>
-    <t>maa://28065</t>
-  </si>
-  <si>
-    <t>maa://21249, maa://26254</t>
-  </si>
-  <si>
-    <t>maa://21919, maa://21281</t>
-  </si>
-  <si>
-    <t>maa://31836, maa://30381</t>
-  </si>
-  <si>
-    <t>maa://22750</t>
-  </si>
-  <si>
-    <t>maa://32931, *maa://21916, maa://23252, *maa://22759</t>
-  </si>
-  <si>
-    <t>*maa://22736</t>
-  </si>
-  <si>
-    <t>maa://28977, *maa://23264</t>
-  </si>
-  <si>
-    <t>maa://22676, *maa://22583, *maa://22500</t>
-  </si>
-  <si>
-    <t>maa://23250, maa://20107, maa://22772</t>
-  </si>
-  <si>
-    <t>maa://34865, maa://34717, maa://35720, maa://35792, maa://35758, maa://28734</t>
-  </si>
-  <si>
-    <t>maa://28504</t>
-  </si>
-  <si>
-    <t>maa://31270, maa://27746, maa://23890, *maa://24940</t>
-  </si>
-  <si>
-    <t>maa://29920, maa://30162, maa://29927, maa://29655, maa://30178, maa://30164, maa://29926, maa://30190, maa://30176, maa://29925, maa://29922, maa://29924, maa://29923, maa://29921, maa://30191</t>
-  </si>
-  <si>
-    <t>maa://24381</t>
-  </si>
-  <si>
-    <t>maa://30587, *maa://29748</t>
-  </si>
-  <si>
-    <t>maa://24382</t>
-  </si>
-  <si>
-    <t>*maa://30968</t>
-  </si>
-  <si>
-    <t>*maa://23168</t>
-  </si>
-  <si>
-    <t>maa://21442</t>
-  </si>
-  <si>
-    <t>maa://26203</t>
-  </si>
-  <si>
-    <t>*maa://21956, maa://22730</t>
-  </si>
-  <si>
-    <t>maa://21280, *maa://21239</t>
-  </si>
-  <si>
-    <t>*maa://24383</t>
-  </si>
-  <si>
-    <t>maa://24709</t>
-  </si>
-  <si>
-    <t>maa://23278, maa://21386</t>
-  </si>
-  <si>
-    <t>maa://22742, *maa://20791</t>
-  </si>
-  <si>
-    <t>maa://24617</t>
-  </si>
-  <si>
-    <t>maa://32509, *maa://31008, maa://27295, maa://22754, *maa://21746</t>
-  </si>
-  <si>
-    <t>maa://21291</t>
-  </si>
-  <si>
-    <t>maa://26222</t>
-  </si>
-  <si>
-    <t>maa://27395, maa://22755</t>
-  </si>
-  <si>
-    <t>maa://22747, maa://22501</t>
-  </si>
-  <si>
-    <t>maa://24709, maa://21484</t>
-  </si>
-  <si>
-    <t>*maa://22471, maa://22521</t>
-  </si>
-  <si>
-    <t>maa://23892</t>
-  </si>
-  <si>
-    <t>*maa://28648, maa://22729</t>
-  </si>
-  <si>
-    <t>maa://24385</t>
-  </si>
-  <si>
-    <t>maa://24386</t>
-  </si>
-  <si>
-    <t>maa://29113</t>
-  </si>
-  <si>
-    <t>maa://21993</t>
-  </si>
-  <si>
-    <t>maa://31212, maa://24387</t>
-  </si>
-  <si>
-    <t>maa://24010, maa://24021, *maa://24018, maa://34408, maa://20109, maa://22466, maa://24037, maa://22545, *maa://24020, maa://24105, maa://31114</t>
-  </si>
-  <si>
-    <t>maa://30624</t>
-  </si>
-  <si>
-    <t>*maa://29765, maa://23263</t>
-  </si>
-  <si>
-    <t>maa://28502, maa://21181, maa://21157, maa://21211</t>
-  </si>
-  <si>
-    <t>maa://32940, maa://24388</t>
-  </si>
-  <si>
-    <t>maa://30711, maa://30768</t>
-  </si>
-  <si>
-    <t>maa://24526</t>
-  </si>
-  <si>
-    <t>maa://24842</t>
-  </si>
-  <si>
-    <t>maa://27613</t>
-  </si>
-  <si>
-    <t>maa://30713</t>
-  </si>
-  <si>
-    <t>maa://27484, maa://27396, *maa://29890, maa://27480</t>
-  </si>
-  <si>
-    <t>maa://21290</t>
-  </si>
-  <si>
-    <t>maa://22399, *maa://22758</t>
-  </si>
-  <si>
-    <t>maa://21411</t>
-  </si>
-  <si>
-    <t>maa://26223</t>
-  </si>
-  <si>
-    <t>maa://22301, maa://22726</t>
-  </si>
-  <si>
-    <t>maa://22753, *maa://21485</t>
-  </si>
-  <si>
-    <t>maa://34957, *maa://22768</t>
-  </si>
-  <si>
-    <t>maa://28501, maa://28051</t>
-  </si>
-  <si>
-    <t>maa://21917, maa://22741</t>
-  </si>
-  <si>
-    <t>maa://31386</t>
-  </si>
-  <si>
-    <t>maa://34946, maa://20110</t>
-  </si>
-  <si>
-    <t>maa://21282</t>
-  </si>
-  <si>
-    <t>*maa://28503</t>
-  </si>
-  <si>
-    <t>maa://29988, maa://23504, *maa://25141</t>
-  </si>
-  <si>
-    <t>*maa://29890</t>
-  </si>
-  <si>
-    <t>maa://24389</t>
-  </si>
-  <si>
-    <t>maa://21246</t>
-  </si>
-  <si>
-    <t>maa://24390</t>
-  </si>
-  <si>
-    <t>maa://29863</t>
-  </si>
-  <si>
-    <t>maa://22739</t>
-  </si>
-  <si>
-    <t>maa://34732, maa://34778, maa://34834, maa://29619, maa://29653, maa://34753, maa://23983, maa://34790, *maa://23990, maa://24010, maa://24001, maa://23986, maa://23997, *maa://24003</t>
-  </si>
-  <si>
-    <t>maa://28711</t>
-  </si>
-  <si>
-    <t>maa://24391</t>
-  </si>
-  <si>
-    <t>maa://29912, maa://22516, *maa://20794</t>
-  </si>
-  <si>
-    <t>maa://23669</t>
-  </si>
-  <si>
-    <t>maa://24392</t>
-  </si>
-  <si>
-    <t>maa://22764</t>
-  </si>
-  <si>
-    <t>maa://26228</t>
-  </si>
-  <si>
-    <t>maa://24393</t>
-  </si>
-  <si>
-    <t>*maa://30709</t>
-  </si>
-  <si>
-    <t>*maa://21443</t>
-  </si>
-  <si>
-    <t>maa://23656</t>
-  </si>
-  <si>
-    <t>maa://29652</t>
-  </si>
-  <si>
-    <t>maa://31215, *maa://24516, maa://26001</t>
-  </si>
-  <si>
-    <t>maa://25251</t>
-  </si>
-  <si>
-    <t>*maa://21289</t>
-  </si>
-  <si>
-    <t>*maa://30062</t>
-  </si>
-  <si>
-    <t>*maa://33152</t>
-  </si>
-  <si>
-    <t>*maa://26191</t>
-  </si>
-  <si>
-    <t>*maa://24479, *maa://21990</t>
-  </si>
-  <si>
-    <t>maa://26206</t>
-  </si>
-  <si>
-    <t>*maa://25021, *maa://22733, maa://22761</t>
-  </si>
-  <si>
-    <t>maa://31203</t>
-  </si>
-  <si>
-    <t>*maa://30062, maa://28932, *maa://20106, *maa://22769</t>
-  </si>
-  <si>
-    <t>maa://21364, *maa://22766</t>
-  </si>
-  <si>
-    <t>*maa://23911, maa://27755</t>
-  </si>
-  <si>
-    <t>*maa://24313</t>
-  </si>
-  <si>
-    <t>*maa://21663</t>
-  </si>
-  <si>
-    <t>maa://22524, maa://22432</t>
-  </si>
-  <si>
-    <t>maa://29658</t>
-  </si>
-  <si>
-    <t>maa://31489</t>
-  </si>
-  <si>
-    <t>maa://29910, maa://22523</t>
-  </si>
-  <si>
-    <t>maa://24621, maa://20108, maa://22771</t>
-  </si>
-  <si>
-    <t>maa://30511</t>
-  </si>
-  <si>
-    <t>maa://24023</t>
-  </si>
-  <si>
-    <t>*maa://24080, maa://24690, maa://26956, maa://24815</t>
-  </si>
-  <si>
-    <t>*maa://32650</t>
+    <t>*为好评率不高于80%,**为好评率不高于50%，***为好评率不高于30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maa://35568, maa://24632, maa://33777, *maa://32337, maa://31167, maa://21178, **maa://24303, maa://22746, maa://22499, maa://21197, maa://21210, maa://21155</t>
+  </si>
+  <si>
+    <t>**maa://32237</t>
+  </si>
+  <si>
+    <t>maa://21432, maa://25198, **maa://20795</t>
+  </si>
+  <si>
+    <t>maa://23842, maa://23848, maa://23861, maa://23862, **maa://28036, **maa://23850, **maa://23879, **maa://23946, **maa://23864</t>
+  </si>
+  <si>
+    <t>*maa://21248, **maa://22728</t>
+  </si>
+  <si>
+    <t>maa://25236, **maa://21678, **maa://22735</t>
+  </si>
+  <si>
+    <t>maa://34494, **maa://21283</t>
+  </si>
+  <si>
+    <t>maa://32721, ***maa://24373</t>
+  </si>
+  <si>
+    <t>maa://21895, **maa://20793, maa://22760</t>
+  </si>
+  <si>
+    <t>maa://32534, **maa://32434</t>
+  </si>
+  <si>
+    <t>maa://34787, *maa://30515, *maa://24633, ***maa://29083</t>
+  </si>
+  <si>
+    <t>**maa://24395</t>
+  </si>
+  <si>
+    <t>maa://22325, maa://28347, maa://22466, maa://22400, **maa://22732, maa://31374, maa://30096, *maa://27023, maa://21182, maa://21213</t>
+  </si>
+  <si>
+    <t>maa://23250, maa://20107, maa://22772, **maa://22745</t>
+  </si>
+  <si>
+    <t>**maa://30050, *maa://23168</t>
+  </si>
+  <si>
+    <t>**maa://35616</t>
+  </si>
+  <si>
+    <t>maa://24617, **maa://20790</t>
+  </si>
+  <si>
+    <t>maa://32509, *maa://31008, *maa://27295, maa://22754, *maa://21746</t>
+  </si>
+  <si>
+    <t>**maa://22866, maa://26222</t>
+  </si>
+  <si>
+    <t>maa://27395, maa://22755, **maa://22756</t>
+  </si>
+  <si>
+    <t>maa://24010, maa://24021, *maa://24018, maa://34408, maa://20109, maa://22466, maa://24037, maa://22545, **maa://22732, ***maa://24011, *maa://24020, **maa://31614, maa://24105, **maa://24038, maa://31114</t>
+  </si>
+  <si>
+    <t>maa://21917, *maa://22741</t>
+  </si>
+  <si>
+    <t>maa://29988, maa://23504, *maa://25141, **maa://22892, ***maa://22815</t>
+  </si>
+  <si>
+    <t>*maa://33152, ***maa://22770</t>
+  </si>
+  <si>
+    <t>maa://26206, **maa://22865</t>
+  </si>
+  <si>
+    <t>***maa://22737</t>
+  </si>
+  <si>
+    <t>*maa://21364, *maa://22766</t>
+  </si>
+  <si>
+    <t>*maa://24313, **maa://29784</t>
+  </si>
+  <si>
+    <t>maa://29910, maa://22523, **maa://21440</t>
+  </si>
+  <si>
+    <t>maa://30511, **maa://29760</t>
+  </si>
+  <si>
+    <t>**maa://32658</t>
+  </si>
+  <si>
+    <t>maa://29863, **maa://26013</t>
+  </si>
+  <si>
+    <t>maa://28711, **maa://27377, ***maa://25174</t>
+  </si>
+  <si>
+    <t>*maa://21443, ***maa://23820</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,6 +1657,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1669,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1688,6 +1711,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1973,7 +1999,7 @@
   <dimension ref="A1:AE69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2094,34 +2120,34 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>203</v>
@@ -2130,16 +2156,16 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>268</v>
@@ -2148,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
@@ -2157,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2177,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2186,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2195,16 +2221,16 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2213,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2222,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2231,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2239,37 +2265,37 @@
         <v>42</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>341</v>
+        <v>496</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>159</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>205</v>
@@ -2278,22 +2304,25 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>270</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
@@ -2302,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2313,16 +2342,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>128</v>
@@ -2331,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2340,16 +2369,16 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>245</v>
@@ -2358,25 +2387,25 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -2384,10 +2413,10 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>71</v>
@@ -2396,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2405,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2414,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2429,10 +2458,10 @@
         <v>246</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>272</v>
@@ -2441,16 +2470,16 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2461,16 +2490,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>130</v>
@@ -2479,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2488,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2497,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2506,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2524,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2535,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2544,16 +2573,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>163</v>
@@ -2562,16 +2591,16 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>248</v>
@@ -2580,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
@@ -2589,7 +2618,7 @@
         <v>14</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2598,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2609,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2627,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2636,16 +2665,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2654,25 +2683,25 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2680,7 +2709,10 @@
         <v>48</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2689,13 +2721,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
@@ -2704,16 +2739,16 @@
         <v>2</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
       </c>
       <c r="R10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2722,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2731,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2740,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2748,19 +2783,19 @@
         <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>134</v>
@@ -2769,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2787,16 +2822,16 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>277</v>
@@ -2805,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2814,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2825,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2834,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>167</v>
@@ -2858,10 +2893,10 @@
         <v>213</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>252</v>
@@ -2870,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
@@ -2879,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
@@ -2888,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -2899,25 +2934,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>366</v>
+        <v>500</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>168</v>
@@ -2926,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -2935,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -2944,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>279</v>
@@ -2953,13 +2988,16 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
       </c>
       <c r="AD13" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -2970,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -2979,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
@@ -2988,16 +3026,16 @@
         <v>2</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
       </c>
       <c r="N14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3006,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3024,16 +3062,16 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -3044,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3053,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3062,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3071,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>216</v>
@@ -3080,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3095,10 +3133,10 @@
         <v>281</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>308</v>
@@ -3107,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3118,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3136,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3145,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3154,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3163,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3172,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
@@ -3181,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3192,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3201,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3210,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3219,43 +3257,43 @@
         <v>4</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>218</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>257</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>283</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>310</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
@@ -3266,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3275,16 +3313,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
       </c>
       <c r="J18" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>406</v>
+        <v>508</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3293,7 +3331,7 @@
         <v>15</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3302,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3311,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3320,16 +3358,16 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3337,10 +3375,10 @@
         <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>84</v>
@@ -3364,10 +3402,10 @@
         <v>174</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>220</v>
@@ -3376,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3385,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3394,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3403,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3411,10 +3449,10 @@
         <v>58</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>353</v>
+        <v>498</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3423,25 +3461,25 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>221</v>
@@ -3450,34 +3488,34 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>286</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>313</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -3488,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3497,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3506,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3515,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3524,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3533,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
       </c>
       <c r="Z21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3551,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3559,19 +3597,19 @@
         <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>373</v>
+        <v>501</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3580,16 +3618,16 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>223</v>
@@ -3604,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3613,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3622,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3630,28 +3668,28 @@
         <v>61</v>
       </c>
       <c r="B23" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>355</v>
+        <v>499</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>146</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
@@ -3660,7 +3698,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3669,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3678,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3687,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3696,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3707,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3722,37 +3760,37 @@
         <v>147</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>179</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>225</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>264</v>
       </c>
       <c r="V24" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3767,10 +3805,10 @@
         <v>317</v>
       </c>
       <c r="AD24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3781,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3790,7 +3828,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3799,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3808,16 +3846,16 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
       </c>
       <c r="R25" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3826,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -3835,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
@@ -3844,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -3852,10 +3890,10 @@
         <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>91</v>
@@ -3864,16 +3902,16 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>181</v>
@@ -3882,16 +3920,16 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>266</v>
@@ -3900,25 +3938,25 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC26" s="4" t="s">
         <v>319</v>
       </c>
       <c r="AD26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -3926,19 +3964,19 @@
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>376</v>
+        <v>502</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -3947,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -3965,25 +4003,25 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>293</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>320</v>
@@ -3992,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4003,16 +4041,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>151</v>
@@ -4021,16 +4059,16 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>229</v>
@@ -4039,34 +4077,34 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>294</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>321</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4077,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4086,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
@@ -4095,16 +4133,16 @@
         <v>4</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4113,25 +4151,25 @@
         <v>4</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>322</v>
@@ -4140,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4148,10 +4186,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>95</v>
@@ -4169,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4178,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4187,34 +4225,34 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>323</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -4222,19 +4260,19 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>378</v>
+        <v>503</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4243,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>232</v>
@@ -4261,25 +4299,25 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>324</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -4287,10 +4325,10 @@
         <v>97</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>379</v>
+        <v>504</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4299,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4308,16 +4346,16 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>325</v>
@@ -4343,10 +4381,10 @@
         <v>156</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>188</v>
@@ -4355,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4370,10 +4408,10 @@
         <v>17</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
@@ -4381,28 +4419,28 @@
         <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>189</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>235</v>
@@ -4411,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>20</v>
@@ -4420,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4428,28 +4466,28 @@
         <v>100</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>236</v>
@@ -4458,10 +4496,10 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
@@ -4478,25 +4516,25 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>237</v>
@@ -4505,16 +4543,16 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -4525,16 +4563,16 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>192</v>
@@ -4543,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4555,38 +4593,38 @@
         <v>66</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>193</v>
@@ -4595,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4604,22 +4642,22 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="E39" s="1" t="s">
         <v>104</v>
       </c>
@@ -4627,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>194</v>
@@ -4636,21 +4674,21 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4658,10 +4696,10 @@
         <v>105</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>195</v>
@@ -4670,16 +4708,16 @@
         <v>2</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4693,13 +4731,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4713,7 +4754,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4721,10 +4762,10 @@
         <v>107</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>197</v>
@@ -4739,10 +4780,10 @@
         <v>22</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4756,25 +4797,25 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
@@ -4788,25 +4829,25 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
@@ -4820,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
@@ -4832,18 +4873,18 @@
         <v>66</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -4854,16 +4895,16 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
@@ -4877,16 +4918,16 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
@@ -4897,24 +4938,24 @@
         <v>113</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>360</v>
+        <v>494</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -4922,19 +4963,19 @@
         <v>114</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -4945,19 +4986,19 @@
         <v>115</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -4968,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -4979,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -4987,10 +5028,10 @@
         <v>118</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>391</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -5012,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -5020,10 +5061,10 @@
         <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -5034,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5056,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5064,10 +5105,10 @@
         <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -5075,10 +5116,10 @@
         <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -5086,10 +5127,10 @@
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5097,10 +5138,10 @@
         <v>29</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5108,10 +5149,10 @@
         <v>32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
@@ -5119,10 +5160,10 @@
         <v>33</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
@@ -5130,43 +5171,43 @@
         <v>38</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E67" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E69" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
